--- a/data/outputs/OR/16.xlsx
+++ b/data/outputs/OR/16.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ99"/>
+  <dimension ref="A1:BR99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -921,6 +926,7 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1130,6 +1136,7 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1339,6 +1346,7 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1544,6 +1552,7 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1757,6 +1766,7 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1962,6 +1972,7 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2163,6 +2174,7 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2368,6 +2380,7 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2577,6 +2590,7 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2790,6 +2804,7 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2999,6 +3014,7 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3208,6 +3224,7 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3417,6 +3434,7 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3622,6 +3640,7 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3823,6 +3842,7 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4028,6 +4048,7 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4229,6 +4250,7 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4426,6 +4448,7 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4627,6 +4650,7 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4824,6 +4848,7 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5017,6 +5042,7 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5218,6 +5244,7 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5411,6 +5438,7 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5624,6 +5652,7 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5817,6 +5846,7 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6026,6 +6056,7 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6235,6 +6266,7 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6452,6 +6484,7 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6657,6 +6690,7 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6870,6 +6904,11 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr">
+        <is>
+          <t>5970349</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7079,6 +7118,7 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7284,6 +7324,7 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7497,6 +7538,7 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7702,6 +7744,7 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7919,6 +7962,7 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8132,6 +8176,7 @@
         </is>
       </c>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8349,6 +8394,7 @@
         </is>
       </c>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8558,6 +8604,7 @@
         </is>
       </c>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8767,6 +8814,7 @@
         </is>
       </c>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -8984,6 +9032,7 @@
         </is>
       </c>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9201,6 +9250,7 @@
         </is>
       </c>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9414,6 +9464,7 @@
         </is>
       </c>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9615,6 +9666,7 @@
         </is>
       </c>
       <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9828,6 +9880,7 @@
         </is>
       </c>
       <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10037,6 +10090,7 @@
         </is>
       </c>
       <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10123,7 +10177,7 @@
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>KAMINSKI, PAULO/0000-0001-6917-7208; </t>
+          <t>KAMINSKI, PAULO/0000-0001-6917-7208;</t>
         </is>
       </c>
       <c r="AB47" t="inlineStr">
@@ -10254,6 +10308,7 @@
         </is>
       </c>
       <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10463,6 +10518,7 @@
         </is>
       </c>
       <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10672,6 +10728,7 @@
         </is>
       </c>
       <c r="BQ49" t="inlineStr"/>
+      <c r="BR49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -10889,6 +10946,7 @@
         </is>
       </c>
       <c r="BQ50" t="inlineStr"/>
+      <c r="BR50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11094,6 +11152,7 @@
         </is>
       </c>
       <c r="BQ51" t="inlineStr"/>
+      <c r="BR51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11303,6 +11362,7 @@
         </is>
       </c>
       <c r="BQ52" t="inlineStr"/>
+      <c r="BR52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11512,6 +11572,7 @@
         </is>
       </c>
       <c r="BQ53" t="inlineStr"/>
+      <c r="BR53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11729,6 +11790,7 @@
         </is>
       </c>
       <c r="BQ54" t="inlineStr"/>
+      <c r="BR54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -11946,6 +12008,7 @@
         </is>
       </c>
       <c r="BQ55" t="inlineStr"/>
+      <c r="BR55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12155,6 +12218,7 @@
         </is>
       </c>
       <c r="BQ56" t="inlineStr"/>
+      <c r="BR56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12360,6 +12424,7 @@
         </is>
       </c>
       <c r="BQ57" t="inlineStr"/>
+      <c r="BR57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12569,6 +12634,7 @@
         </is>
       </c>
       <c r="BQ58" t="inlineStr"/>
+      <c r="BR58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -12778,6 +12844,7 @@
         </is>
       </c>
       <c r="BQ59" t="inlineStr"/>
+      <c r="BR59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -12979,6 +13046,7 @@
         </is>
       </c>
       <c r="BQ60" t="inlineStr"/>
+      <c r="BR60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13204,6 +13272,7 @@
         </is>
       </c>
       <c r="BQ61" t="inlineStr"/>
+      <c r="BR61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13393,6 +13462,7 @@
         </is>
       </c>
       <c r="BQ62" t="inlineStr"/>
+      <c r="BR62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13614,6 +13684,7 @@
         </is>
       </c>
       <c r="BQ63" t="inlineStr"/>
+      <c r="BR63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -13705,7 +13776,7 @@
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t> [NMP-246020-2]</t>
+          <t>[NMP-246020-2]</t>
         </is>
       </c>
       <c r="AC64" t="inlineStr">
@@ -13835,6 +13906,7 @@
         </is>
       </c>
       <c r="BQ64" t="inlineStr"/>
+      <c r="BR64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -14048,6 +14120,7 @@
         </is>
       </c>
       <c r="BQ65" t="inlineStr"/>
+      <c r="BR65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14139,7 +14212,7 @@
       </c>
       <c r="AB66" t="inlineStr">
         <is>
-          <t> [NMP-246020-2]</t>
+          <t>[NMP-246020-2]</t>
         </is>
       </c>
       <c r="AC66" t="inlineStr">
@@ -14269,6 +14342,7 @@
         </is>
       </c>
       <c r="BQ66" t="inlineStr"/>
+      <c r="BR66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14355,7 +14429,7 @@
       </c>
       <c r="AA67" t="inlineStr">
         <is>
-          <t>Rosa, Paolo/0000-0003-3957-707X; </t>
+          <t>Rosa, Paolo/0000-0003-3957-707X;</t>
         </is>
       </c>
       <c r="AB67" t="inlineStr">
@@ -14490,6 +14564,7 @@
         </is>
       </c>
       <c r="BQ67" t="inlineStr"/>
+      <c r="BR67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -14691,6 +14766,7 @@
         </is>
       </c>
       <c r="BQ68" t="inlineStr"/>
+      <c r="BR68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -14900,6 +14976,7 @@
         </is>
       </c>
       <c r="BQ69" t="inlineStr"/>
+      <c r="BR69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -15109,6 +15186,7 @@
         </is>
       </c>
       <c r="BQ70" t="inlineStr"/>
+      <c r="BR70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15318,6 +15396,7 @@
         </is>
       </c>
       <c r="BQ71" t="inlineStr"/>
+      <c r="BR71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -15523,6 +15602,7 @@
         </is>
       </c>
       <c r="BQ72" t="inlineStr"/>
+      <c r="BR72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -15724,6 +15804,7 @@
         </is>
       </c>
       <c r="BQ73" t="inlineStr"/>
+      <c r="BR73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -15925,6 +16006,7 @@
         </is>
       </c>
       <c r="BQ74" t="inlineStr"/>
+      <c r="BR74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -16126,6 +16208,7 @@
         </is>
       </c>
       <c r="BQ75" t="inlineStr"/>
+      <c r="BR75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16335,6 +16418,7 @@
         </is>
       </c>
       <c r="BQ76" t="inlineStr"/>
+      <c r="BR76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -16540,6 +16624,7 @@
         </is>
       </c>
       <c r="BQ77" t="inlineStr"/>
+      <c r="BR77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -16749,6 +16834,7 @@
         </is>
       </c>
       <c r="BQ78" t="inlineStr"/>
+      <c r="BR78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -16958,6 +17044,7 @@
         </is>
       </c>
       <c r="BQ79" t="inlineStr"/>
+      <c r="BR79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -17159,6 +17246,7 @@
         </is>
       </c>
       <c r="BQ80" t="inlineStr"/>
+      <c r="BR80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -17368,6 +17456,7 @@
         </is>
       </c>
       <c r="BQ81" t="inlineStr"/>
+      <c r="BR81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -17585,6 +17674,7 @@
         </is>
       </c>
       <c r="BQ82" t="inlineStr"/>
+      <c r="BR82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -17782,6 +17872,7 @@
         </is>
       </c>
       <c r="BQ83" t="inlineStr"/>
+      <c r="BR83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -17999,6 +18090,7 @@
         </is>
       </c>
       <c r="BQ84" t="inlineStr"/>
+      <c r="BR84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -18216,6 +18308,7 @@
         </is>
       </c>
       <c r="BQ85" t="inlineStr"/>
+      <c r="BR85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -18437,6 +18530,7 @@
         </is>
       </c>
       <c r="BQ86" t="inlineStr"/>
+      <c r="BR86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -18650,6 +18744,7 @@
         </is>
       </c>
       <c r="BQ87" t="inlineStr"/>
+      <c r="BR87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -18867,6 +18962,7 @@
         </is>
       </c>
       <c r="BQ88" t="inlineStr"/>
+      <c r="BR88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -19084,6 +19180,7 @@
         </is>
       </c>
       <c r="BQ89" t="inlineStr"/>
+      <c r="BR89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -19297,6 +19394,7 @@
         </is>
       </c>
       <c r="BQ90" t="inlineStr"/>
+      <c r="BR90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -19510,6 +19608,7 @@
         </is>
       </c>
       <c r="BQ91" t="inlineStr"/>
+      <c r="BR91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -19715,6 +19814,7 @@
         </is>
       </c>
       <c r="BQ92" t="inlineStr"/>
+      <c r="BR92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -19912,6 +20012,7 @@
         </is>
       </c>
       <c r="BQ93" t="inlineStr"/>
+      <c r="BR93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -20117,6 +20218,7 @@
         </is>
       </c>
       <c r="BQ94" t="inlineStr"/>
+      <c r="BR94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -20322,6 +20424,7 @@
         </is>
       </c>
       <c r="BQ95" t="inlineStr"/>
+      <c r="BR95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -20535,6 +20638,7 @@
         </is>
       </c>
       <c r="BQ96" t="inlineStr"/>
+      <c r="BR96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -20740,6 +20844,7 @@
         </is>
       </c>
       <c r="BQ97" t="inlineStr"/>
+      <c r="BR97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -20941,6 +21046,7 @@
         </is>
       </c>
       <c r="BQ98" t="inlineStr"/>
+      <c r="BR98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -21150,6 +21256,7 @@
         </is>
       </c>
       <c r="BQ99" t="inlineStr"/>
+      <c r="BR99" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
